--- a/angular/src/assets/sampleFiles/ImportTrucksSampleFileAr.xlsx
+++ b/angular/src/assets/sampleFiles/ImportTrucksSampleFileAr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\source\tachyon-core\angular\src\assets\sampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED0F4493-2602-4AE3-A959-7C19EAE0186B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0776A6B-1C3F-4068-A26D-9D5ECB9DF4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30186" yWindow="2255" windowWidth="16302" windowHeight="8518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3043" windowWidth="26219" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">رقم اللوحة* </t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>نوع النقل*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">نوع الشاحنة * </t>
@@ -110,14 +107,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -400,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -430,51 +427,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/angular/src/assets/sampleFiles/ImportTrucksSampleFileAr.xlsx
+++ b/angular/src/assets/sampleFiles/ImportTrucksSampleFileAr.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\source\tachyon-core\angular\src\assets\sampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0776A6B-1C3F-4068-A26D-9D5ECB9DF4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC18552E-20AD-4E9F-B4C9-67FFE40E3A6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3043" windowWidth="26219" windowHeight="8110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="11982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lists" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="TransportTypes">Lists!$A$2:$A$5</definedName>
+    <definedName name="TruckTypes">Lists!$B$2:$B$26</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t xml:space="preserve">رقم اللوحة* </t>
   </si>
@@ -70,19 +75,118 @@
   </si>
   <si>
     <t>تاريخ انتهاء الاستمارة (ميلادي)</t>
+  </si>
+  <si>
+    <t>نوع النقل</t>
+  </si>
+  <si>
+    <t>نوع الشاحنة</t>
+  </si>
+  <si>
+    <t>عادي</t>
+  </si>
+  <si>
+    <t>تبريد</t>
+  </si>
+  <si>
+    <t>صهريج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أخرى </t>
+  </si>
+  <si>
+    <t>سطحة</t>
+  </si>
+  <si>
+    <t>سيارة نقل</t>
+  </si>
+  <si>
+    <t>بيك اب مكشوفة</t>
+  </si>
+  <si>
+    <t>بيك اب مغلقة</t>
+  </si>
+  <si>
+    <t>لوبيد</t>
+  </si>
+  <si>
+    <t>ديانا نقل تبريد خفيف</t>
+  </si>
+  <si>
+    <t>بيك اب نقل تبريد خفيف</t>
+  </si>
+  <si>
+    <t>صهريج بمواصفات خاصة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شاحنة بصندوق مغلق</t>
+  </si>
+  <si>
+    <t>شاحنة ستائر</t>
+  </si>
+  <si>
+    <t>شاحنة جوانب</t>
+  </si>
+  <si>
+    <t>شاحنة سقف مكشوف</t>
+  </si>
+  <si>
+    <t>ديانا صندوق مغلق</t>
+  </si>
+  <si>
+    <t>ديانا سقف مكشوف</t>
+  </si>
+  <si>
+    <t>شاحنة نقل سيارات</t>
+  </si>
+  <si>
+    <t>شاحنة نقل حاوية مبردة</t>
+  </si>
+  <si>
+    <t>شاحنة نقل تبريد خفيف</t>
+  </si>
+  <si>
+    <t>شاحنة نقل مجمدة</t>
+  </si>
+  <si>
+    <t>ديانا نقل مجمدة</t>
+  </si>
+  <si>
+    <t>بيك اب نقل مجمدة</t>
+  </si>
+  <si>
+    <t>شاحنة نقل مبردة</t>
+  </si>
+  <si>
+    <t>ديانا نقل مبردة</t>
+  </si>
+  <si>
+    <t>بيك اب نقل مبردة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,11 +205,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,6 +235,28 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,11 +540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3"/>
   <cols>
     <col min="1" max="1" width="11.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
@@ -422,7 +563,7 @@
     <col min="16" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,11 +619,11 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ماهو نوع النقل لهذه الشاحنة، الرجاء الاختيار من القائمة (ملاحظة: هذا الحقل اجباري و سيتم رفض الملف اذا كان هذا الحقل فارغ) " sqref="E1" xr:uid="{5400CA0A-7CC4-4B78-88EF-4C95D128AF98}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{466B8D90-CA77-47FA-AA39-3355694F20FB}">
-      <formula1>"Ambient,Cold Chain,Others"</formula1>
+      <formula1>TransportTypes</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="يرجى اختيار نوع الشاحنة، (ملاحظة: هذا الحقل اجباري و سيتم رفض الملف اذا كان هذا الحقل فارغ) " sqref="F1" xr:uid="{3B7062E2-50F2-4A4C-99BF-8B28FBEBD718}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{0324F7E5-3F51-43C7-90C5-594DA1EA6B92}">
-      <formula1>"Flatbed,Closed box trailer,Curtain sides trailer,Sidewall trailer,Open top,Dyana Closed box,Dyana Open top,Pick up,Car Shuttler,Lowbed,Genset,Reefer Truck,Reefer Dyana,Reefer pick up,Freezer Truck,Freezer Dyana,Freezer pick up,Others"</formula1>
+      <formula1>TruckTypes</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="الرجاء ادخال تاريخ انتهاء التأمين ضد الغير، يمكنك ادخال تاريخ هجري أو ميلادي (ملاحظة: في هذا الحقل يرجى ادخال تاريخ ميلادي، يوم/شهر/سنة)" sqref="O1" xr:uid="{672A960E-5728-4E7D-A521-E93782D0DDAC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="الرجاء ادخال تاريخ انتهاء التأمين ضد الغير، يمكنك ادخال تاريخ هجري أو ميلادي(ملاحظة: في هذا الحقل يرجى ادخال تاريخ هجري، يوم/شهر/سنة)" sqref="N1" xr:uid="{08D916E2-E6DC-48D8-88A4-E0270EDFD2FA}"/>
@@ -499,4 +640,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B750E704-581D-4AEC-B3A2-70DC6679EE6C}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="9"/>
+    <col min="2" max="2" width="18.5" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/angular/src/assets/sampleFiles/ImportTrucksSampleFileAr.xlsx
+++ b/angular/src/assets/sampleFiles/ImportTrucksSampleFileAr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC18552E-20AD-4E9F-B4C9-67FFE40E3A6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD07F8-22C8-4A42-BE5A-8A6B34FFE74A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="11982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.3"/>
@@ -615,7 +615,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="الرجاء ادخال رقم اللوحة (ملاحظة: هذا الحقل اجباري و سيتم رفض الملف اذا كان هذا الحقل فارغ) " sqref="A1" xr:uid="{4B3F1EEA-17EF-4BA7-B53F-0DA5DE5B30BE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="هل يوجد لها مقطورة " sqref="D1" xr:uid="{419C2030-19E0-4DDA-B401-FE3476DD0189}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{C4760B7F-F130-4F9E-B479-13DC9E1059D2}">
-      <formula1>"Yes,No"</formula1>
+      <formula1>"نعم,لا"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ماهو نوع النقل لهذه الشاحنة، الرجاء الاختيار من القائمة (ملاحظة: هذا الحقل اجباري و سيتم رفض الملف اذا كان هذا الحقل فارغ) " sqref="E1" xr:uid="{5400CA0A-7CC4-4B78-88EF-4C95D128AF98}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{466B8D90-CA77-47FA-AA39-3355694F20FB}">
